--- a/planilla varios primera vercion.xlsx
+++ b/planilla varios primera vercion.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enzo_\Desktop\Olivos_Combustibles_SRL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3203FC5-6CA8-4085-A99D-CB5AB7968C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB06FB2A-74C5-468F-A7DE-5151474D5C1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,9 +12,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$3:$H$49</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -57,9 +51,6 @@
     <t>GTX 15W-40 X 1L</t>
   </si>
   <si>
-    <t>ACTEVO 4T 20W-50 ACTIVOND X 1L</t>
-  </si>
-  <si>
     <t>GO! 2T X 1L</t>
   </si>
   <si>
@@ -78,9 +69,6 @@
     <t>GTX 20W-50 X 1L</t>
   </si>
   <si>
-    <t>EDGE 5W-40 DICEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">EDGE 5W-40 NEGRO NAFTA </t>
   </si>
   <si>
@@ -123,9 +111,6 @@
     <t>LEÑA</t>
   </si>
   <si>
-    <t>LIQUI MOLI DISEL</t>
-  </si>
-  <si>
     <t>LIQUI MOLI NAFTA</t>
   </si>
   <si>
@@ -190,13 +175,22 @@
   </si>
   <si>
     <t>Encargado:                                                                                          Fecha:                                                                                             Turno:</t>
+  </si>
+  <si>
+    <t>ACTEVO 4T 20W-50 ACTIBOND X 1L</t>
+  </si>
+  <si>
+    <t>LIQUI MOLI DICEL</t>
+  </si>
+  <si>
+    <t>EDGE 5W-40 DISEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,15 +429,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,6 +446,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,7 +515,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -573,7 +567,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -767,30 +761,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F86FB81-B5EE-4C55-896F-BFC7A72AF8EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="55.28515625" customWidth="1"/>
     <col min="3" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -801,7 +795,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -812,581 +806,581 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="32.1" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" customHeight="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" customHeight="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" ht="30" customHeight="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" ht="30" customHeight="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" ht="30" customHeight="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" ht="30" customHeight="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" ht="30" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" customHeight="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" ht="30" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" ht="30" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8" ht="30" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" ht="30" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8" ht="30" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8" ht="30" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:8" ht="30" customHeight="1" thickBot="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" ht="30" customHeight="1" thickBot="1">
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="2:8" ht="30" customHeight="1" thickBot="1">
+      <c r="B49" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="12"/>
-    </row>
-    <row r="47" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="15"/>
-    </row>
-    <row r="48" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="53" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/planilla varios primera vercion.xlsx
+++ b/planilla varios primera vercion.xlsx
@@ -180,10 +180,10 @@
     <t>ACTEVO 4T 20W-50 ACTIBOND X 1L</t>
   </si>
   <si>
-    <t>LIQUI MOLI DICEL</t>
-  </si>
-  <si>
-    <t>EDGE 5W-40 DISEL</t>
+    <t>EDGE 5W-40 DIESEL</t>
+  </si>
+  <si>
+    <t>LIQUI MOLI DIESEL</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -774,8 +774,8 @@
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1001,7 +1001,7 @@
     <row r="18" spans="1:8" ht="30" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1181,7 +1181,7 @@
     <row r="33" spans="1:8" ht="30" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
